--- a/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19492" windowHeight="8985"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +60,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -534,137 +540,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,6 +684,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1027,17 +1036,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:E6"/>
+  <dimension ref="C3:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.35" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="21.1238938053097" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.7522123893805" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.6283185840708" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.625" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1083,6 +1092,28 @@
       </c>
       <c r="E6" s="5">
         <v>20001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>20003</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="17370" windowHeight="14145"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,12 +60,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -540,137 +534,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -684,9 +678,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1036,13 +1027,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:E8"/>
+  <dimension ref="C3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1083,38 +1074,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:5">
-      <c r="C6" s="5">
+    <row r="6" customFormat="1" spans="3:5">
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="3">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:5">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
         <v>20001</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
-      <c r="C7" s="6">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>20002</v>
-      </c>
+    <row r="8" spans="5:5">
+      <c r="E8" s="3"/>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="6">
-        <v>3</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>20003</v>
-      </c>
+    <row r="9" spans="5:5">
+      <c r="E9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17370" windowHeight="14145"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -1030,7 +1030,7 @@
   <dimension ref="C3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="6" customFormat="1" spans="3:5">
       <c r="C6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="7" s="1" customFormat="1" spans="3:5">
       <c r="C7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>

--- a/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartProcessConfig@s.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1030,7 +1043,7 @@
   <dimension ref="C3:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
